--- a/Attachments/dataOne (1).xlsx
+++ b/Attachments/dataOne (1).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Project Type</t>
   </si>
@@ -82,7 +82,7 @@
     <t>ANE ABCD</t>
   </si>
   <si>
-    <t>MICHAEL IRONS</t>
+    <t>ABC Franchise Changed</t>
   </si>
   <si>
     <t>Under Construction</t>
@@ -115,7 +115,7 @@
     <t>FLENCHER, BENJAMIN</t>
   </si>
   <si>
-    <t>Rebuild</t>
+    <t>ServerHandheld</t>
   </si>
   <si>
     <t>5227 Decker Ln</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>REEDER RATLIFF</t>
+  </si>
+  <si>
+    <t>Audio</t>
   </si>
   <si>
     <t>108 N Lincoln Dr (temp)</t>
@@ -152,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -172,7 +175,7 @@
     </font>
     <font>
       <sz val="6.0"/>
-      <color theme="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -185,6 +188,11 @@
       <i/>
       <sz val="6.0"/>
       <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="6.0"/>
+      <color theme="10"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -341,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -355,7 +363,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -366,13 +374,16 @@
     <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -381,7 +392,7 @@
     <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -390,13 +401,13 @@
     <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="3" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -405,7 +416,7 @@
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -692,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>1110.0</v>
+        <v>11200.0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -739,7 +750,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="3">
-        <v>1111.0</v>
+        <v>11201.0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -766,13 +777,13 @@
       <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="M3" s="5">
         <v>44713.0</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="9">
         <v>44944.0</v>
       </c>
       <c r="O3" s="7" t="s">
@@ -784,7 +795,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="3">
-        <v>1112.0</v>
+        <v>11202.0</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
@@ -811,7 +822,7 @@
       <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="M4" s="5">
@@ -825,42 +836,42 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="3">
-        <v>1113.0</v>
+        <v>11203.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2">
         <v>609.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="L5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="10">
         <v>44819.0</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="9">
         <v>44950.0</v>
       </c>
       <c r="O5" s="7" t="s">
@@ -879,9 +890,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="8"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7">
@@ -896,9 +907,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="7"/>
     </row>
     <row r="8">
@@ -913,7 +924,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
@@ -930,7 +941,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="10"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
@@ -947,9 +958,9 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="8"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="7"/>
     </row>
     <row r="11">
@@ -964,7 +975,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="5"/>
       <c r="N11" s="6"/>
       <c r="O11" s="7"/>
@@ -981,7 +992,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="5"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
@@ -998,7 +1009,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
@@ -1015,7 +1026,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
@@ -1032,9 +1043,9 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="8"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="7"/>
     </row>
     <row r="16">
@@ -1049,8 +1060,8 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="6"/>
       <c r="O16" s="7"/>
     </row>
@@ -1066,9 +1077,9 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="8"/>
+      <c r="N17" s="9"/>
       <c r="O17" s="7"/>
     </row>
     <row r="18">
@@ -1083,7 +1094,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="7"/>
@@ -1100,9 +1111,9 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
       <c r="O19" s="7"/>
     </row>
     <row r="20">
@@ -1117,7 +1128,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
       <c r="O20" s="7"/>
@@ -1134,7 +1145,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="5"/>
       <c r="N21" s="6"/>
       <c r="O21" s="7"/>
@@ -1151,7 +1162,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="10"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="7"/>
@@ -1168,7 +1179,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="7"/>
@@ -1185,7 +1196,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="7"/>
@@ -1202,8 +1213,8 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="9"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="6"/>
       <c r="O25" s="7"/>
     </row>
@@ -1219,7 +1230,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="7"/>
@@ -1236,7 +1247,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="7"/>
@@ -1253,7 +1264,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="5"/>
       <c r="N28" s="6"/>
       <c r="O28" s="7"/>
@@ -1270,7 +1281,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="7"/>
@@ -1287,7 +1298,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="7"/>
@@ -1304,7 +1315,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="7"/>
@@ -1321,7 +1332,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="7"/>
@@ -1338,7 +1349,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="10"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="7"/>
@@ -1355,7 +1366,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="10"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="7"/>
@@ -1372,7 +1383,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="10"/>
+      <c r="L35" s="11"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="7"/>
@@ -1389,7 +1400,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="10"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="7"/>
@@ -1406,7 +1417,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="10"/>
+      <c r="L37" s="11"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="7"/>
@@ -1423,9 +1434,9 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="8"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="9"/>
       <c r="O38" s="7"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -1440,7 +1451,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="10"/>
+      <c r="L39" s="11"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="7"/>
@@ -1457,7 +1468,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="10"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="7"/>
@@ -1474,9 +1485,9 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
       <c r="O41" s="7"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -1491,7 +1502,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="10"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="7"/>
@@ -1508,7 +1519,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="10"/>
+      <c r="L43" s="11"/>
       <c r="M43" s="5"/>
       <c r="N43" s="6"/>
       <c r="O43" s="7"/>
@@ -1525,7 +1536,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="10"/>
+      <c r="L44" s="11"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="7"/>
@@ -1542,9 +1553,9 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
       <c r="O45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -1559,7 +1570,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="10"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="7"/>
@@ -1576,7 +1587,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="10"/>
+      <c r="L47" s="11"/>
       <c r="M47" s="5"/>
       <c r="N47" s="6"/>
       <c r="O47" s="7"/>
@@ -1593,7 +1604,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="10"/>
+      <c r="L48" s="11"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="7"/>
@@ -1610,7 +1621,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="10"/>
+      <c r="L49" s="11"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="7"/>
@@ -1627,7 +1638,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="10"/>
+      <c r="L50" s="11"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="7"/>
@@ -1644,7 +1655,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="10"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="7"/>
@@ -1661,9 +1672,9 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
       <c r="O52" s="7"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -1678,27 +1689,27 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="10"/>
+      <c r="L53" s="11"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="7"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="15"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="16"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
@@ -1712,9 +1723,9 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
       <c r="O55" s="7"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -1729,7 +1740,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="10"/>
+      <c r="L56" s="11"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="7"/>
@@ -1746,7 +1757,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="10"/>
+      <c r="L57" s="11"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="7"/>
@@ -1763,7 +1774,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="10"/>
+      <c r="L58" s="11"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="7"/>
@@ -1780,7 +1791,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="10"/>
+      <c r="L59" s="11"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="7"/>
@@ -1797,7 +1808,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="10"/>
+      <c r="L60" s="11"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="7"/>
@@ -1814,7 +1825,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="10"/>
+      <c r="L61" s="11"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="7"/>
@@ -1831,9 +1842,9 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
       <c r="O62" s="7"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -1848,7 +1859,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="10"/>
+      <c r="L63" s="11"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="7"/>
@@ -1865,7 +1876,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="10"/>
+      <c r="L64" s="11"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="7"/>
@@ -1882,7 +1893,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="10"/>
+      <c r="L65" s="11"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="7"/>
@@ -1899,7 +1910,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="10"/>
+      <c r="L66" s="11"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="7"/>
@@ -1916,7 +1927,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="10"/>
+      <c r="L67" s="11"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="7"/>
@@ -1933,7 +1944,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="10"/>
+      <c r="L68" s="11"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="7"/>
@@ -1950,7 +1961,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="10"/>
+      <c r="L69" s="11"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="7"/>
@@ -1967,7 +1978,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="10"/>
+      <c r="L70" s="11"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="7"/>
@@ -1984,7 +1995,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="10"/>
+      <c r="L71" s="11"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="7"/>
@@ -2001,7 +2012,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="10"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="7"/>
@@ -2018,7 +2029,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="10"/>
+      <c r="L73" s="11"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="7"/>
@@ -2035,7 +2046,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="10"/>
+      <c r="L74" s="11"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="7"/>
@@ -2052,7 +2063,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="10"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="7"/>
@@ -2069,7 +2080,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="10"/>
+      <c r="L76" s="11"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="7"/>
@@ -2086,7 +2097,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="10"/>
+      <c r="L77" s="11"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="7"/>
@@ -2103,7 +2114,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="10"/>
+      <c r="L78" s="11"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="7"/>
@@ -2120,7 +2131,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="10"/>
+      <c r="L79" s="11"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="7"/>
@@ -2137,7 +2148,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="10"/>
+      <c r="L80" s="11"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="7"/>
@@ -2154,9 +2165,9 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
       <c r="O81" s="7"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -2171,7 +2182,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="10"/>
+      <c r="L82" s="11"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="7"/>
@@ -2188,9 +2199,9 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
       <c r="O83" s="7"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -2205,9 +2216,9 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
       <c r="O84" s="7"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -2222,9 +2233,9 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
       <c r="O85" s="7"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -2239,7 +2250,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="10"/>
+      <c r="L86" s="11"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="7"/>
@@ -2256,7 +2267,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="10"/>
+      <c r="L87" s="11"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
       <c r="O87" s="7"/>
@@ -2273,7 +2284,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="10"/>
+      <c r="L88" s="11"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="7"/>
@@ -2290,7 +2301,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="10"/>
+      <c r="L89" s="11"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
       <c r="O89" s="7"/>
@@ -2307,7 +2318,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="10"/>
+      <c r="L90" s="11"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
       <c r="O90" s="7"/>
@@ -2324,7 +2335,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="10"/>
+      <c r="L91" s="11"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="7"/>
@@ -2341,7 +2352,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="10"/>
+      <c r="L92" s="11"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="7"/>
@@ -2358,7 +2369,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="10"/>
+      <c r="L93" s="11"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="7"/>
@@ -2375,7 +2386,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
-      <c r="L94" s="10"/>
+      <c r="L94" s="11"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="7"/>
@@ -2392,7 +2403,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="10"/>
+      <c r="L95" s="11"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
       <c r="O95" s="7"/>
@@ -2409,7 +2420,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="10"/>
+      <c r="L96" s="11"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="7"/>
@@ -2426,7 +2437,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="10"/>
+      <c r="L97" s="11"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="7"/>
@@ -2443,8 +2454,8 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="8"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="9"/>
       <c r="N98" s="6"/>
       <c r="O98" s="7"/>
     </row>
@@ -2460,7 +2471,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="L99" s="10"/>
+      <c r="L99" s="11"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="7"/>
@@ -2477,7 +2488,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="10"/>
+      <c r="L100" s="11"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
       <c r="O100" s="7"/>
@@ -2494,9 +2505,9 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
       <c r="O101" s="7"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
@@ -2511,7 +2522,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-      <c r="L102" s="10"/>
+      <c r="L102" s="11"/>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
       <c r="O102" s="7"/>
@@ -2528,9 +2539,9 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
       <c r="O103" s="7"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -2545,7 +2556,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="10"/>
+      <c r="L104" s="11"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
       <c r="O104" s="7"/>
@@ -2562,9 +2573,9 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
       <c r="O105" s="7"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
@@ -2579,7 +2590,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="10"/>
+      <c r="L106" s="11"/>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
       <c r="O106" s="7"/>
@@ -2596,7 +2607,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="10"/>
+      <c r="L107" s="11"/>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
       <c r="O107" s="7"/>
@@ -2613,7 +2624,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="10"/>
+      <c r="L108" s="11"/>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
       <c r="O108" s="7"/>
@@ -2630,7 +2641,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="10"/>
+      <c r="L109" s="11"/>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
       <c r="O109" s="7"/>
@@ -2647,7 +2658,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
-      <c r="L110" s="10"/>
+      <c r="L110" s="11"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
       <c r="O110" s="7"/>
@@ -2664,9 +2675,9 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
       <c r="O111" s="7"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -2681,7 +2692,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-      <c r="L112" s="10"/>
+      <c r="L112" s="11"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
       <c r="O112" s="7"/>
@@ -2698,7 +2709,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
-      <c r="L113" s="10"/>
+      <c r="L113" s="11"/>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
       <c r="O113" s="7"/>
@@ -2715,7 +2726,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
-      <c r="L114" s="10"/>
+      <c r="L114" s="11"/>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
       <c r="O114" s="7"/>
@@ -2732,7 +2743,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
-      <c r="L115" s="10"/>
+      <c r="L115" s="11"/>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
       <c r="O115" s="7"/>
@@ -2749,7 +2760,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
-      <c r="L116" s="10"/>
+      <c r="L116" s="11"/>
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
       <c r="O116" s="7"/>
@@ -2766,9 +2777,9 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
-      <c r="L117" s="10"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
       <c r="O117" s="7"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -2783,9 +2794,9 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
       <c r="O118" s="7"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -2800,7 +2811,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="10"/>
+      <c r="L119" s="11"/>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
       <c r="O119" s="7"/>
@@ -2817,7 +2828,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
-      <c r="L120" s="10"/>
+      <c r="L120" s="11"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="7"/>
@@ -2834,7 +2845,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
-      <c r="L121" s="10"/>
+      <c r="L121" s="11"/>
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
       <c r="O121" s="7"/>
@@ -2851,7 +2862,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
-      <c r="L122" s="10"/>
+      <c r="L122" s="11"/>
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
       <c r="O122" s="7"/>
@@ -2868,7 +2879,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
-      <c r="L123" s="10"/>
+      <c r="L123" s="11"/>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
       <c r="O123" s="7"/>
@@ -2885,7 +2896,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="10"/>
+      <c r="L124" s="11"/>
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
       <c r="O124" s="7"/>
@@ -2902,7 +2913,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
-      <c r="L125" s="10"/>
+      <c r="L125" s="11"/>
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
       <c r="O125" s="7"/>
@@ -2919,7 +2930,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="10"/>
+      <c r="L126" s="11"/>
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
       <c r="O126" s="7"/>
@@ -2936,7 +2947,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
-      <c r="L127" s="10"/>
+      <c r="L127" s="11"/>
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
       <c r="O127" s="7"/>
@@ -2953,7 +2964,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
-      <c r="L128" s="10"/>
+      <c r="L128" s="11"/>
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
       <c r="O128" s="7"/>
@@ -2970,7 +2981,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
-      <c r="L129" s="10"/>
+      <c r="L129" s="11"/>
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
       <c r="O129" s="7"/>
@@ -2987,7 +2998,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
-      <c r="L130" s="10"/>
+      <c r="L130" s="11"/>
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
       <c r="O130" s="7"/>
@@ -3004,7 +3015,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
-      <c r="L131" s="10"/>
+      <c r="L131" s="11"/>
       <c r="M131" s="6"/>
       <c r="N131" s="6"/>
       <c r="O131" s="7"/>
@@ -3021,7 +3032,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
-      <c r="L132" s="10"/>
+      <c r="L132" s="11"/>
       <c r="M132" s="6"/>
       <c r="N132" s="6"/>
       <c r="O132" s="7"/>
@@ -3038,7 +3049,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
-      <c r="L133" s="10"/>
+      <c r="L133" s="11"/>
       <c r="M133" s="6"/>
       <c r="N133" s="6"/>
       <c r="O133" s="7"/>
@@ -3055,7 +3066,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
-      <c r="L134" s="10"/>
+      <c r="L134" s="11"/>
       <c r="M134" s="6"/>
       <c r="N134" s="6"/>
       <c r="O134" s="7"/>
@@ -3072,7 +3083,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
-      <c r="L135" s="10"/>
+      <c r="L135" s="11"/>
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
       <c r="O135" s="7"/>
@@ -3089,7 +3100,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
-      <c r="L136" s="10"/>
+      <c r="L136" s="11"/>
       <c r="M136" s="6"/>
       <c r="N136" s="6"/>
       <c r="O136" s="7"/>
@@ -3106,7 +3117,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
-      <c r="L137" s="10"/>
+      <c r="L137" s="11"/>
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
       <c r="O137" s="7"/>
@@ -3123,7 +3134,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
-      <c r="L138" s="10"/>
+      <c r="L138" s="11"/>
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
       <c r="O138" s="7"/>
@@ -3140,7 +3151,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
-      <c r="L139" s="10"/>
+      <c r="L139" s="11"/>
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
       <c r="O139" s="7"/>
@@ -3157,7 +3168,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
-      <c r="L140" s="10"/>
+      <c r="L140" s="11"/>
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
       <c r="O140" s="7"/>
@@ -3174,27 +3185,27 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="10"/>
+      <c r="L141" s="11"/>
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
       <c r="O141" s="7"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="11"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="11"/>
-      <c r="L142" s="13"/>
-      <c r="M142" s="14"/>
-      <c r="N142" s="14"/>
-      <c r="O142" s="15"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="16"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
@@ -3208,7 +3219,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
-      <c r="L143" s="10"/>
+      <c r="L143" s="11"/>
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
       <c r="O143" s="7"/>
@@ -3225,7 +3236,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
-      <c r="L144" s="10"/>
+      <c r="L144" s="11"/>
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
       <c r="O144" s="7"/>
@@ -3242,9 +3253,9 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
-      <c r="L145" s="10"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
       <c r="O145" s="7"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
@@ -3259,7 +3270,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
-      <c r="L146" s="10"/>
+      <c r="L146" s="11"/>
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
       <c r="O146" s="7"/>
@@ -3276,7 +3287,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
-      <c r="L147" s="10"/>
+      <c r="L147" s="11"/>
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
       <c r="O147" s="7"/>
@@ -3293,7 +3304,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
-      <c r="L148" s="10"/>
+      <c r="L148" s="11"/>
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
       <c r="O148" s="7"/>
@@ -3310,7 +3321,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
-      <c r="L149" s="10"/>
+      <c r="L149" s="11"/>
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
       <c r="O149" s="7"/>
@@ -3327,7 +3338,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
-      <c r="L150" s="10"/>
+      <c r="L150" s="11"/>
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
       <c r="O150" s="7"/>
@@ -3344,7 +3355,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
-      <c r="L151" s="10"/>
+      <c r="L151" s="11"/>
       <c r="M151" s="6"/>
       <c r="N151" s="6"/>
       <c r="O151" s="7"/>
@@ -3361,7 +3372,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
-      <c r="L152" s="10"/>
+      <c r="L152" s="11"/>
       <c r="M152" s="6"/>
       <c r="N152" s="6"/>
       <c r="O152" s="7"/>
@@ -3378,7 +3389,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
-      <c r="L153" s="10"/>
+      <c r="L153" s="11"/>
       <c r="M153" s="6"/>
       <c r="N153" s="6"/>
       <c r="O153" s="7"/>
@@ -3395,27 +3406,27 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
-      <c r="L154" s="10"/>
+      <c r="L154" s="11"/>
       <c r="M154" s="6"/>
       <c r="N154" s="6"/>
       <c r="O154" s="7"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="11"/>
-      <c r="L155" s="13"/>
-      <c r="M155" s="14"/>
-      <c r="N155" s="14"/>
-      <c r="O155" s="15"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="15"/>
+      <c r="O155" s="16"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
@@ -3429,7 +3440,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
-      <c r="L156" s="10"/>
+      <c r="L156" s="11"/>
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>
       <c r="O156" s="7"/>
@@ -3446,7 +3457,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
-      <c r="L157" s="10"/>
+      <c r="L157" s="11"/>
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
       <c r="O157" s="7"/>
@@ -3463,7 +3474,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
-      <c r="L158" s="10"/>
+      <c r="L158" s="11"/>
       <c r="M158" s="6"/>
       <c r="N158" s="6"/>
       <c r="O158" s="7"/>
@@ -3480,7 +3491,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
-      <c r="L159" s="10"/>
+      <c r="L159" s="11"/>
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
       <c r="O159" s="7"/>
@@ -3497,7 +3508,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
-      <c r="L160" s="10"/>
+      <c r="L160" s="11"/>
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
       <c r="O160" s="7"/>
@@ -3514,7 +3525,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
-      <c r="L161" s="10"/>
+      <c r="L161" s="11"/>
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
       <c r="O161" s="7"/>
@@ -3531,7 +3542,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
-      <c r="L162" s="10"/>
+      <c r="L162" s="11"/>
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
       <c r="O162" s="7"/>
@@ -3548,7 +3559,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
-      <c r="L163" s="10"/>
+      <c r="L163" s="11"/>
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
       <c r="O163" s="7"/>
@@ -3565,7 +3576,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
-      <c r="L164" s="10"/>
+      <c r="L164" s="11"/>
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
       <c r="O164" s="7"/>
@@ -3582,7 +3593,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
-      <c r="L165" s="10"/>
+      <c r="L165" s="11"/>
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
       <c r="O165" s="7"/>
@@ -3599,7 +3610,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
-      <c r="L166" s="10"/>
+      <c r="L166" s="11"/>
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
       <c r="O166" s="7"/>
@@ -3616,7 +3627,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
-      <c r="L167" s="10"/>
+      <c r="L167" s="11"/>
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
       <c r="O167" s="7"/>
@@ -3633,7 +3644,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
-      <c r="L168" s="10"/>
+      <c r="L168" s="11"/>
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
       <c r="O168" s="7"/>
@@ -3650,7 +3661,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
-      <c r="L169" s="10"/>
+      <c r="L169" s="11"/>
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
       <c r="O169" s="7"/>
@@ -3667,7 +3678,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
-      <c r="L170" s="10"/>
+      <c r="L170" s="11"/>
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
       <c r="O170" s="7"/>
@@ -3684,7 +3695,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
-      <c r="L171" s="10"/>
+      <c r="L171" s="11"/>
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
       <c r="O171" s="7"/>
@@ -3701,9 +3712,9 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
-      <c r="L172" s="10"/>
-      <c r="M172" s="16"/>
-      <c r="N172" s="16"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="17"/>
+      <c r="N172" s="17"/>
       <c r="O172" s="7"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
@@ -3718,7 +3729,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
-      <c r="L173" s="10"/>
+      <c r="L173" s="11"/>
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
       <c r="O173" s="7"/>
@@ -3735,9 +3746,9 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
-      <c r="L174" s="10"/>
-      <c r="M174" s="16"/>
-      <c r="N174" s="16"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="17"/>
+      <c r="N174" s="17"/>
       <c r="O174" s="7"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
@@ -3752,7 +3763,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
-      <c r="L175" s="10"/>
+      <c r="L175" s="11"/>
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
       <c r="O175" s="7"/>
@@ -3769,7 +3780,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
-      <c r="L176" s="10"/>
+      <c r="L176" s="11"/>
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
       <c r="O176" s="7"/>
@@ -3786,7 +3797,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
-      <c r="L177" s="10"/>
+      <c r="L177" s="11"/>
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
       <c r="O177" s="7"/>
@@ -3803,7 +3814,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
-      <c r="L178" s="10"/>
+      <c r="L178" s="11"/>
       <c r="M178" s="6"/>
       <c r="N178" s="6"/>
       <c r="O178" s="7"/>
@@ -3820,7 +3831,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
-      <c r="L179" s="10"/>
+      <c r="L179" s="11"/>
       <c r="M179" s="6"/>
       <c r="N179" s="6"/>
       <c r="O179" s="7"/>
@@ -3837,9 +3848,9 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
-      <c r="L180" s="10"/>
-      <c r="M180" s="16"/>
-      <c r="N180" s="16"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="17"/>
+      <c r="N180" s="17"/>
       <c r="O180" s="7"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
@@ -3854,7 +3865,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
-      <c r="L181" s="10"/>
+      <c r="L181" s="11"/>
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
       <c r="O181" s="7"/>
@@ -3871,7 +3882,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
-      <c r="L182" s="10"/>
+      <c r="L182" s="11"/>
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
       <c r="O182" s="7"/>
@@ -3888,7 +3899,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
-      <c r="L183" s="10"/>
+      <c r="L183" s="11"/>
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
       <c r="O183" s="7"/>
@@ -3905,7 +3916,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
-      <c r="L184" s="10"/>
+      <c r="L184" s="11"/>
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
       <c r="O184" s="7"/>
@@ -3922,7 +3933,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
-      <c r="L185" s="10"/>
+      <c r="L185" s="11"/>
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
       <c r="O185" s="7"/>
@@ -3939,7 +3950,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
-      <c r="L186" s="10"/>
+      <c r="L186" s="11"/>
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
       <c r="O186" s="7"/>
@@ -3956,7 +3967,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
-      <c r="L187" s="10"/>
+      <c r="L187" s="11"/>
       <c r="M187" s="6"/>
       <c r="N187" s="6"/>
       <c r="O187" s="7"/>
@@ -3973,7 +3984,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
-      <c r="L188" s="10"/>
+      <c r="L188" s="11"/>
       <c r="M188" s="6"/>
       <c r="N188" s="6"/>
       <c r="O188" s="7"/>
@@ -3990,7 +4001,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
-      <c r="L189" s="10"/>
+      <c r="L189" s="11"/>
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
       <c r="O189" s="7"/>
@@ -4007,9 +4018,9 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
-      <c r="L190" s="10"/>
-      <c r="M190" s="16"/>
-      <c r="N190" s="16"/>
+      <c r="L190" s="11"/>
+      <c r="M190" s="17"/>
+      <c r="N190" s="17"/>
       <c r="O190" s="7"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
@@ -4024,7 +4035,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
-      <c r="L191" s="10"/>
+      <c r="L191" s="11"/>
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
       <c r="O191" s="7"/>
@@ -4041,7 +4052,7 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
-      <c r="L192" s="10"/>
+      <c r="L192" s="11"/>
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
       <c r="O192" s="7"/>
@@ -4058,7 +4069,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
-      <c r="L193" s="10"/>
+      <c r="L193" s="11"/>
       <c r="M193" s="6"/>
       <c r="N193" s="6"/>
       <c r="O193" s="7"/>
@@ -4075,7 +4086,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
-      <c r="L194" s="10"/>
+      <c r="L194" s="11"/>
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
       <c r="O194" s="7"/>
@@ -4092,7 +4103,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
-      <c r="L195" s="10"/>
+      <c r="L195" s="11"/>
       <c r="M195" s="6"/>
       <c r="N195" s="6"/>
       <c r="O195" s="7"/>
@@ -4109,7 +4120,7 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
-      <c r="L196" s="10"/>
+      <c r="L196" s="11"/>
       <c r="M196" s="6"/>
       <c r="N196" s="6"/>
       <c r="O196" s="7"/>
@@ -4126,7 +4137,7 @@
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
-      <c r="L197" s="10"/>
+      <c r="L197" s="11"/>
       <c r="M197" s="6"/>
       <c r="N197" s="2"/>
       <c r="O197" s="7"/>
@@ -4143,8 +4154,8 @@
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
-      <c r="L198" s="10"/>
-      <c r="M198" s="9"/>
+      <c r="L198" s="11"/>
+      <c r="M198" s="10"/>
       <c r="N198" s="2"/>
       <c r="O198" s="7"/>
     </row>
@@ -4160,7 +4171,7 @@
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
-      <c r="L199" s="10"/>
+      <c r="L199" s="11"/>
       <c r="M199" s="5"/>
       <c r="N199" s="2"/>
       <c r="O199" s="7"/>
@@ -4177,7 +4188,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
-      <c r="L200" s="10"/>
+      <c r="L200" s="11"/>
       <c r="M200" s="5"/>
       <c r="N200" s="2"/>
       <c r="O200" s="7"/>
@@ -4194,2421 +4205,2421 @@
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
-      <c r="L201" s="10"/>
+      <c r="L201" s="11"/>
       <c r="M201" s="5"/>
       <c r="N201" s="2"/>
       <c r="O201" s="7"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="17"/>
-      <c r="B202" s="17"/>
-      <c r="C202" s="17"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="17"/>
-      <c r="F202" s="17"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="17"/>
-      <c r="I202" s="17"/>
-      <c r="J202" s="17"/>
-      <c r="K202" s="17"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="19"/>
-      <c r="N202" s="17"/>
-      <c r="O202" s="20"/>
+      <c r="A202" s="18"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
+      <c r="J202" s="18"/>
+      <c r="K202" s="18"/>
+      <c r="L202" s="19"/>
+      <c r="M202" s="20"/>
+      <c r="N202" s="18"/>
+      <c r="O202" s="21"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="L203" s="21"/>
+      <c r="L203" s="22"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="L204" s="21"/>
+      <c r="L204" s="22"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="L205" s="21"/>
+      <c r="L205" s="22"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="L206" s="21"/>
+      <c r="L206" s="22"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="L207" s="21"/>
+      <c r="L207" s="22"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="L208" s="21"/>
+      <c r="L208" s="22"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="L209" s="21"/>
+      <c r="L209" s="22"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="L210" s="21"/>
+      <c r="L210" s="22"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="L211" s="21"/>
+      <c r="L211" s="22"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="L212" s="21"/>
+      <c r="L212" s="22"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="L213" s="21"/>
+      <c r="L213" s="22"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="L214" s="21"/>
+      <c r="L214" s="22"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="L215" s="21"/>
+      <c r="L215" s="22"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="L216" s="21"/>
+      <c r="L216" s="22"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="L217" s="21"/>
+      <c r="L217" s="22"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="L218" s="21"/>
+      <c r="L218" s="22"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="L219" s="21"/>
+      <c r="L219" s="22"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="L220" s="21"/>
+      <c r="L220" s="22"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="L221" s="21"/>
+      <c r="L221" s="22"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="L222" s="21"/>
+      <c r="L222" s="22"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="L223" s="21"/>
+      <c r="L223" s="22"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="L224" s="21"/>
+      <c r="L224" s="22"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="L225" s="21"/>
+      <c r="L225" s="22"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="L226" s="21"/>
+      <c r="L226" s="22"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="L227" s="21"/>
+      <c r="L227" s="22"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="L228" s="21"/>
+      <c r="L228" s="22"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="L229" s="21"/>
+      <c r="L229" s="22"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="L230" s="21"/>
+      <c r="L230" s="22"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="L231" s="21"/>
+      <c r="L231" s="22"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="L232" s="21"/>
+      <c r="L232" s="22"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="L233" s="21"/>
+      <c r="L233" s="22"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="L234" s="21"/>
+      <c r="L234" s="22"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="L235" s="21"/>
+      <c r="L235" s="22"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="L236" s="21"/>
+      <c r="L236" s="22"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="L237" s="21"/>
+      <c r="L237" s="22"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="L238" s="21"/>
+      <c r="L238" s="22"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="L239" s="21"/>
+      <c r="L239" s="22"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="L240" s="21"/>
+      <c r="L240" s="22"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="L241" s="21"/>
+      <c r="L241" s="22"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="L242" s="21"/>
+      <c r="L242" s="22"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="L243" s="21"/>
+      <c r="L243" s="22"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="L244" s="21"/>
+      <c r="L244" s="22"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="L245" s="21"/>
+      <c r="L245" s="22"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="L246" s="21"/>
+      <c r="L246" s="22"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="L247" s="21"/>
+      <c r="L247" s="22"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="L248" s="21"/>
+      <c r="L248" s="22"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="L249" s="21"/>
+      <c r="L249" s="22"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="L250" s="21"/>
+      <c r="L250" s="22"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="L251" s="21"/>
+      <c r="L251" s="22"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="L252" s="21"/>
+      <c r="L252" s="22"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="L253" s="21"/>
+      <c r="L253" s="22"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="L254" s="21"/>
+      <c r="L254" s="22"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="L255" s="21"/>
+      <c r="L255" s="22"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="L256" s="21"/>
+      <c r="L256" s="22"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="L257" s="21"/>
+      <c r="L257" s="22"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="L258" s="21"/>
+      <c r="L258" s="22"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="L259" s="21"/>
+      <c r="L259" s="22"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="L260" s="21"/>
+      <c r="L260" s="22"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="L261" s="21"/>
+      <c r="L261" s="22"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="L262" s="21"/>
+      <c r="L262" s="22"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="L263" s="21"/>
+      <c r="L263" s="22"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="L264" s="21"/>
+      <c r="L264" s="22"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="L265" s="21"/>
+      <c r="L265" s="22"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="L266" s="21"/>
+      <c r="L266" s="22"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="L267" s="21"/>
+      <c r="L267" s="22"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="L268" s="21"/>
+      <c r="L268" s="22"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="L269" s="21"/>
+      <c r="L269" s="22"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="L270" s="21"/>
+      <c r="L270" s="22"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="L271" s="21"/>
+      <c r="L271" s="22"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="L272" s="21"/>
+      <c r="L272" s="22"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="L273" s="21"/>
+      <c r="L273" s="22"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="L274" s="21"/>
+      <c r="L274" s="22"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="L275" s="21"/>
+      <c r="L275" s="22"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="L276" s="21"/>
+      <c r="L276" s="22"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="L277" s="21"/>
+      <c r="L277" s="22"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="L278" s="21"/>
+      <c r="L278" s="22"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="L279" s="21"/>
+      <c r="L279" s="22"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="L280" s="21"/>
+      <c r="L280" s="22"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="L281" s="21"/>
+      <c r="L281" s="22"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="L282" s="21"/>
+      <c r="L282" s="22"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="L283" s="21"/>
+      <c r="L283" s="22"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="L284" s="21"/>
+      <c r="L284" s="22"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="L285" s="21"/>
+      <c r="L285" s="22"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="L286" s="21"/>
+      <c r="L286" s="22"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="L287" s="21"/>
+      <c r="L287" s="22"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="L288" s="21"/>
+      <c r="L288" s="22"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="L289" s="21"/>
+      <c r="L289" s="22"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="L290" s="21"/>
+      <c r="L290" s="22"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="L291" s="21"/>
+      <c r="L291" s="22"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="L292" s="21"/>
+      <c r="L292" s="22"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="L293" s="21"/>
+      <c r="L293" s="22"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="L294" s="21"/>
+      <c r="L294" s="22"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="L295" s="21"/>
+      <c r="L295" s="22"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="L296" s="21"/>
+      <c r="L296" s="22"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="L297" s="21"/>
+      <c r="L297" s="22"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="L298" s="21"/>
+      <c r="L298" s="22"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="L299" s="21"/>
+      <c r="L299" s="22"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="L300" s="21"/>
+      <c r="L300" s="22"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="L301" s="21"/>
+      <c r="L301" s="22"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="L302" s="21"/>
+      <c r="L302" s="22"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="L303" s="21"/>
+      <c r="L303" s="22"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="L304" s="21"/>
+      <c r="L304" s="22"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="L305" s="21"/>
+      <c r="L305" s="22"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="L306" s="21"/>
+      <c r="L306" s="22"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="L307" s="21"/>
+      <c r="L307" s="22"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="L308" s="21"/>
+      <c r="L308" s="22"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="L309" s="21"/>
+      <c r="L309" s="22"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="L310" s="21"/>
+      <c r="L310" s="22"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="L311" s="21"/>
+      <c r="L311" s="22"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="L312" s="21"/>
+      <c r="L312" s="22"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="L313" s="21"/>
+      <c r="L313" s="22"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="L314" s="21"/>
+      <c r="L314" s="22"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="L315" s="21"/>
+      <c r="L315" s="22"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="L316" s="21"/>
+      <c r="L316" s="22"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="L317" s="21"/>
+      <c r="L317" s="22"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="L318" s="21"/>
+      <c r="L318" s="22"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="L319" s="21"/>
+      <c r="L319" s="22"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="L320" s="21"/>
+      <c r="L320" s="22"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="L321" s="21"/>
+      <c r="L321" s="22"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="L322" s="21"/>
+      <c r="L322" s="22"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="L323" s="21"/>
+      <c r="L323" s="22"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="L324" s="21"/>
+      <c r="L324" s="22"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="L325" s="21"/>
+      <c r="L325" s="22"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="L326" s="21"/>
+      <c r="L326" s="22"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="L327" s="21"/>
+      <c r="L327" s="22"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="L328" s="21"/>
+      <c r="L328" s="22"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="L329" s="21"/>
+      <c r="L329" s="22"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="L330" s="21"/>
+      <c r="L330" s="22"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="L331" s="21"/>
+      <c r="L331" s="22"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="L332" s="21"/>
+      <c r="L332" s="22"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="L333" s="21"/>
+      <c r="L333" s="22"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="L334" s="21"/>
+      <c r="L334" s="22"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="L335" s="21"/>
+      <c r="L335" s="22"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="L336" s="21"/>
+      <c r="L336" s="22"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="L337" s="21"/>
+      <c r="L337" s="22"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="L338" s="21"/>
+      <c r="L338" s="22"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="L339" s="21"/>
+      <c r="L339" s="22"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="L340" s="21"/>
+      <c r="L340" s="22"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="L341" s="21"/>
+      <c r="L341" s="22"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="L342" s="21"/>
+      <c r="L342" s="22"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="L343" s="21"/>
+      <c r="L343" s="22"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="L344" s="21"/>
+      <c r="L344" s="22"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="L345" s="21"/>
+      <c r="L345" s="22"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="L346" s="21"/>
+      <c r="L346" s="22"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="L347" s="21"/>
+      <c r="L347" s="22"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="L348" s="21"/>
+      <c r="L348" s="22"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="L349" s="21"/>
+      <c r="L349" s="22"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="L350" s="21"/>
+      <c r="L350" s="22"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="L351" s="21"/>
+      <c r="L351" s="22"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="L352" s="21"/>
+      <c r="L352" s="22"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="L353" s="21"/>
+      <c r="L353" s="22"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="L354" s="21"/>
+      <c r="L354" s="22"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="L355" s="21"/>
+      <c r="L355" s="22"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="L356" s="21"/>
+      <c r="L356" s="22"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="L357" s="21"/>
+      <c r="L357" s="22"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="L358" s="21"/>
+      <c r="L358" s="22"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="L359" s="21"/>
+      <c r="L359" s="22"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="L360" s="21"/>
+      <c r="L360" s="22"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="L361" s="21"/>
+      <c r="L361" s="22"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="L362" s="21"/>
+      <c r="L362" s="22"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="L363" s="21"/>
+      <c r="L363" s="22"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="L364" s="21"/>
+      <c r="L364" s="22"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="L365" s="21"/>
+      <c r="L365" s="22"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="L366" s="21"/>
+      <c r="L366" s="22"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="L367" s="21"/>
+      <c r="L367" s="22"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="L368" s="21"/>
+      <c r="L368" s="22"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="L369" s="21"/>
+      <c r="L369" s="22"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="L370" s="21"/>
+      <c r="L370" s="22"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="L371" s="21"/>
+      <c r="L371" s="22"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="L372" s="21"/>
+      <c r="L372" s="22"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="L373" s="21"/>
+      <c r="L373" s="22"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="L374" s="21"/>
+      <c r="L374" s="22"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="L375" s="21"/>
+      <c r="L375" s="22"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="L376" s="21"/>
+      <c r="L376" s="22"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="L377" s="21"/>
+      <c r="L377" s="22"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="L378" s="21"/>
+      <c r="L378" s="22"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="L379" s="21"/>
+      <c r="L379" s="22"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="L380" s="21"/>
+      <c r="L380" s="22"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="L381" s="21"/>
+      <c r="L381" s="22"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="L382" s="21"/>
+      <c r="L382" s="22"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="L383" s="21"/>
+      <c r="L383" s="22"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="L384" s="21"/>
+      <c r="L384" s="22"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="L385" s="21"/>
+      <c r="L385" s="22"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="L386" s="21"/>
+      <c r="L386" s="22"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="L387" s="21"/>
+      <c r="L387" s="22"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="L388" s="21"/>
+      <c r="L388" s="22"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="L389" s="21"/>
+      <c r="L389" s="22"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="L390" s="21"/>
+      <c r="L390" s="22"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="L391" s="21"/>
+      <c r="L391" s="22"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="L392" s="21"/>
+      <c r="L392" s="22"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="L393" s="21"/>
+      <c r="L393" s="22"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="L394" s="21"/>
+      <c r="L394" s="22"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="L395" s="21"/>
+      <c r="L395" s="22"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="L396" s="21"/>
+      <c r="L396" s="22"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="L397" s="21"/>
+      <c r="L397" s="22"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="L398" s="21"/>
+      <c r="L398" s="22"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="L399" s="21"/>
+      <c r="L399" s="22"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="L400" s="21"/>
+      <c r="L400" s="22"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="L401" s="21"/>
+      <c r="L401" s="22"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="L402" s="21"/>
+      <c r="L402" s="22"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="L403" s="21"/>
+      <c r="L403" s="22"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="L404" s="21"/>
+      <c r="L404" s="22"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="L405" s="21"/>
+      <c r="L405" s="22"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="L406" s="21"/>
+      <c r="L406" s="22"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="L407" s="21"/>
+      <c r="L407" s="22"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="L408" s="21"/>
+      <c r="L408" s="22"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="L409" s="21"/>
+      <c r="L409" s="22"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="L410" s="21"/>
+      <c r="L410" s="22"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="L411" s="21"/>
+      <c r="L411" s="22"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="L412" s="21"/>
+      <c r="L412" s="22"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="L413" s="21"/>
+      <c r="L413" s="22"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="L414" s="21"/>
+      <c r="L414" s="22"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="L415" s="21"/>
+      <c r="L415" s="22"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="L416" s="21"/>
+      <c r="L416" s="22"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="L417" s="21"/>
+      <c r="L417" s="22"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="L418" s="21"/>
+      <c r="L418" s="22"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="L419" s="21"/>
+      <c r="L419" s="22"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="L420" s="21"/>
+      <c r="L420" s="22"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="L421" s="21"/>
+      <c r="L421" s="22"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="L422" s="21"/>
+      <c r="L422" s="22"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="L423" s="21"/>
+      <c r="L423" s="22"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="L424" s="21"/>
+      <c r="L424" s="22"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="L425" s="21"/>
+      <c r="L425" s="22"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="L426" s="21"/>
+      <c r="L426" s="22"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="L427" s="21"/>
+      <c r="L427" s="22"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="L428" s="21"/>
+      <c r="L428" s="22"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="L429" s="21"/>
+      <c r="L429" s="22"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="L430" s="21"/>
+      <c r="L430" s="22"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="L431" s="21"/>
+      <c r="L431" s="22"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="L432" s="21"/>
+      <c r="L432" s="22"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="L433" s="21"/>
+      <c r="L433" s="22"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="L434" s="21"/>
+      <c r="L434" s="22"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="L435" s="21"/>
+      <c r="L435" s="22"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="L436" s="21"/>
+      <c r="L436" s="22"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="L437" s="21"/>
+      <c r="L437" s="22"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="L438" s="21"/>
+      <c r="L438" s="22"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="L439" s="21"/>
+      <c r="L439" s="22"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="L440" s="21"/>
+      <c r="L440" s="22"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="L441" s="21"/>
+      <c r="L441" s="22"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="L442" s="21"/>
+      <c r="L442" s="22"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="L443" s="21"/>
+      <c r="L443" s="22"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="L444" s="21"/>
+      <c r="L444" s="22"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="L445" s="21"/>
+      <c r="L445" s="22"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="L446" s="21"/>
+      <c r="L446" s="22"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="L447" s="21"/>
+      <c r="L447" s="22"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="L448" s="21"/>
+      <c r="L448" s="22"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="L449" s="21"/>
+      <c r="L449" s="22"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="L450" s="21"/>
+      <c r="L450" s="22"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="L451" s="21"/>
+      <c r="L451" s="22"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="L452" s="21"/>
+      <c r="L452" s="22"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="L453" s="21"/>
+      <c r="L453" s="22"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="L454" s="21"/>
+      <c r="L454" s="22"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="L455" s="21"/>
+      <c r="L455" s="22"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="L456" s="21"/>
+      <c r="L456" s="22"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="L457" s="21"/>
+      <c r="L457" s="22"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="L458" s="21"/>
+      <c r="L458" s="22"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="L459" s="21"/>
+      <c r="L459" s="22"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="L460" s="21"/>
+      <c r="L460" s="22"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="L461" s="21"/>
+      <c r="L461" s="22"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="L462" s="21"/>
+      <c r="L462" s="22"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="L463" s="21"/>
+      <c r="L463" s="22"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="L464" s="21"/>
+      <c r="L464" s="22"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="L465" s="21"/>
+      <c r="L465" s="22"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="L466" s="21"/>
+      <c r="L466" s="22"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="L467" s="21"/>
+      <c r="L467" s="22"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="L468" s="21"/>
+      <c r="L468" s="22"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="L469" s="21"/>
+      <c r="L469" s="22"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="L470" s="21"/>
+      <c r="L470" s="22"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="L471" s="21"/>
+      <c r="L471" s="22"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="L472" s="21"/>
+      <c r="L472" s="22"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="L473" s="21"/>
+      <c r="L473" s="22"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="L474" s="21"/>
+      <c r="L474" s="22"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="L475" s="21"/>
+      <c r="L475" s="22"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="L476" s="21"/>
+      <c r="L476" s="22"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="L477" s="21"/>
+      <c r="L477" s="22"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="L478" s="21"/>
+      <c r="L478" s="22"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="L479" s="21"/>
+      <c r="L479" s="22"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="L480" s="21"/>
+      <c r="L480" s="22"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="L481" s="21"/>
+      <c r="L481" s="22"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="L482" s="21"/>
+      <c r="L482" s="22"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="L483" s="21"/>
+      <c r="L483" s="22"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="L484" s="21"/>
+      <c r="L484" s="22"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="L485" s="21"/>
+      <c r="L485" s="22"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="L486" s="21"/>
+      <c r="L486" s="22"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="L487" s="21"/>
+      <c r="L487" s="22"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="L488" s="21"/>
+      <c r="L488" s="22"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="L489" s="21"/>
+      <c r="L489" s="22"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="L490" s="21"/>
+      <c r="L490" s="22"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="L491" s="21"/>
+      <c r="L491" s="22"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="L492" s="21"/>
+      <c r="L492" s="22"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="L493" s="21"/>
+      <c r="L493" s="22"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="L494" s="21"/>
+      <c r="L494" s="22"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="L495" s="21"/>
+      <c r="L495" s="22"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="L496" s="21"/>
+      <c r="L496" s="22"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="L497" s="21"/>
+      <c r="L497" s="22"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="L498" s="21"/>
+      <c r="L498" s="22"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="L499" s="21"/>
+      <c r="L499" s="22"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="L500" s="21"/>
+      <c r="L500" s="22"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="L501" s="21"/>
+      <c r="L501" s="22"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="L502" s="21"/>
+      <c r="L502" s="22"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="L503" s="21"/>
+      <c r="L503" s="22"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="L504" s="21"/>
+      <c r="L504" s="22"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="L505" s="21"/>
+      <c r="L505" s="22"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="L506" s="21"/>
+      <c r="L506" s="22"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="L507" s="21"/>
+      <c r="L507" s="22"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="L508" s="21"/>
+      <c r="L508" s="22"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="L509" s="21"/>
+      <c r="L509" s="22"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="L510" s="21"/>
+      <c r="L510" s="22"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="L511" s="21"/>
+      <c r="L511" s="22"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="L512" s="21"/>
+      <c r="L512" s="22"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="L513" s="21"/>
+      <c r="L513" s="22"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="L514" s="21"/>
+      <c r="L514" s="22"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="L515" s="21"/>
+      <c r="L515" s="22"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="L516" s="21"/>
+      <c r="L516" s="22"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="L517" s="21"/>
+      <c r="L517" s="22"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="L518" s="21"/>
+      <c r="L518" s="22"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="L519" s="21"/>
+      <c r="L519" s="22"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="L520" s="21"/>
+      <c r="L520" s="22"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="L521" s="21"/>
+      <c r="L521" s="22"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="L522" s="21"/>
+      <c r="L522" s="22"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="L523" s="21"/>
+      <c r="L523" s="22"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="L524" s="21"/>
+      <c r="L524" s="22"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="L525" s="21"/>
+      <c r="L525" s="22"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="L526" s="21"/>
+      <c r="L526" s="22"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="L527" s="21"/>
+      <c r="L527" s="22"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="L528" s="21"/>
+      <c r="L528" s="22"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="L529" s="21"/>
+      <c r="L529" s="22"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="L530" s="21"/>
+      <c r="L530" s="22"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="L531" s="21"/>
+      <c r="L531" s="22"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="L532" s="21"/>
+      <c r="L532" s="22"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="L533" s="21"/>
+      <c r="L533" s="22"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="L534" s="21"/>
+      <c r="L534" s="22"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="L535" s="21"/>
+      <c r="L535" s="22"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="L536" s="21"/>
+      <c r="L536" s="22"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="L537" s="21"/>
+      <c r="L537" s="22"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="L538" s="21"/>
+      <c r="L538" s="22"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="L539" s="21"/>
+      <c r="L539" s="22"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="L540" s="21"/>
+      <c r="L540" s="22"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="L541" s="21"/>
+      <c r="L541" s="22"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="L542" s="21"/>
+      <c r="L542" s="22"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="L543" s="21"/>
+      <c r="L543" s="22"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="L544" s="21"/>
+      <c r="L544" s="22"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="L545" s="21"/>
+      <c r="L545" s="22"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="L546" s="21"/>
+      <c r="L546" s="22"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="L547" s="21"/>
+      <c r="L547" s="22"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="L548" s="21"/>
+      <c r="L548" s="22"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="L549" s="21"/>
+      <c r="L549" s="22"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="L550" s="21"/>
+      <c r="L550" s="22"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="L551" s="21"/>
+      <c r="L551" s="22"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="L552" s="21"/>
+      <c r="L552" s="22"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="L553" s="21"/>
+      <c r="L553" s="22"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="L554" s="21"/>
+      <c r="L554" s="22"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="L555" s="21"/>
+      <c r="L555" s="22"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="L556" s="21"/>
+      <c r="L556" s="22"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="L557" s="21"/>
+      <c r="L557" s="22"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="L558" s="21"/>
+      <c r="L558" s="22"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="L559" s="21"/>
+      <c r="L559" s="22"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="L560" s="21"/>
+      <c r="L560" s="22"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="L561" s="21"/>
+      <c r="L561" s="22"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="L562" s="21"/>
+      <c r="L562" s="22"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="L563" s="21"/>
+      <c r="L563" s="22"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="L564" s="21"/>
+      <c r="L564" s="22"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="L565" s="21"/>
+      <c r="L565" s="22"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="L566" s="21"/>
+      <c r="L566" s="22"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="L567" s="21"/>
+      <c r="L567" s="22"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="L568" s="21"/>
+      <c r="L568" s="22"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="L569" s="21"/>
+      <c r="L569" s="22"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="L570" s="21"/>
+      <c r="L570" s="22"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="L571" s="21"/>
+      <c r="L571" s="22"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="L572" s="21"/>
+      <c r="L572" s="22"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="L573" s="21"/>
+      <c r="L573" s="22"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="L574" s="21"/>
+      <c r="L574" s="22"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="L575" s="21"/>
+      <c r="L575" s="22"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="L576" s="21"/>
+      <c r="L576" s="22"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="L577" s="21"/>
+      <c r="L577" s="22"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="L578" s="21"/>
+      <c r="L578" s="22"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="L579" s="21"/>
+      <c r="L579" s="22"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="L580" s="21"/>
+      <c r="L580" s="22"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="L581" s="21"/>
+      <c r="L581" s="22"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="L582" s="21"/>
+      <c r="L582" s="22"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="L583" s="21"/>
+      <c r="L583" s="22"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="L584" s="21"/>
+      <c r="L584" s="22"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="L585" s="21"/>
+      <c r="L585" s="22"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="L586" s="21"/>
+      <c r="L586" s="22"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="L587" s="21"/>
+      <c r="L587" s="22"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="L588" s="21"/>
+      <c r="L588" s="22"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="L589" s="21"/>
+      <c r="L589" s="22"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="L590" s="21"/>
+      <c r="L590" s="22"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="L591" s="21"/>
+      <c r="L591" s="22"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="L592" s="21"/>
+      <c r="L592" s="22"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="L593" s="21"/>
+      <c r="L593" s="22"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="L594" s="21"/>
+      <c r="L594" s="22"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="L595" s="21"/>
+      <c r="L595" s="22"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="L596" s="21"/>
+      <c r="L596" s="22"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="L597" s="21"/>
+      <c r="L597" s="22"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="L598" s="21"/>
+      <c r="L598" s="22"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="L599" s="21"/>
+      <c r="L599" s="22"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="L600" s="21"/>
+      <c r="L600" s="22"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="L601" s="21"/>
+      <c r="L601" s="22"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="L602" s="21"/>
+      <c r="L602" s="22"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="L603" s="21"/>
+      <c r="L603" s="22"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="L604" s="21"/>
+      <c r="L604" s="22"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="L605" s="21"/>
+      <c r="L605" s="22"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="L606" s="21"/>
+      <c r="L606" s="22"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="L607" s="21"/>
+      <c r="L607" s="22"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="L608" s="21"/>
+      <c r="L608" s="22"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="L609" s="21"/>
+      <c r="L609" s="22"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="L610" s="21"/>
+      <c r="L610" s="22"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="L611" s="21"/>
+      <c r="L611" s="22"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="L612" s="21"/>
+      <c r="L612" s="22"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="L613" s="21"/>
+      <c r="L613" s="22"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="L614" s="21"/>
+      <c r="L614" s="22"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="L615" s="21"/>
+      <c r="L615" s="22"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="L616" s="21"/>
+      <c r="L616" s="22"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="L617" s="21"/>
+      <c r="L617" s="22"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="L618" s="21"/>
+      <c r="L618" s="22"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="L619" s="21"/>
+      <c r="L619" s="22"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="L620" s="21"/>
+      <c r="L620" s="22"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="L621" s="21"/>
+      <c r="L621" s="22"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="L622" s="21"/>
+      <c r="L622" s="22"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="L623" s="21"/>
+      <c r="L623" s="22"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="L624" s="21"/>
+      <c r="L624" s="22"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="L625" s="21"/>
+      <c r="L625" s="22"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="L626" s="21"/>
+      <c r="L626" s="22"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="L627" s="21"/>
+      <c r="L627" s="22"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="L628" s="21"/>
+      <c r="L628" s="22"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="L629" s="21"/>
+      <c r="L629" s="22"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="L630" s="21"/>
+      <c r="L630" s="22"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="L631" s="21"/>
+      <c r="L631" s="22"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="L632" s="21"/>
+      <c r="L632" s="22"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="L633" s="21"/>
+      <c r="L633" s="22"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="L634" s="21"/>
+      <c r="L634" s="22"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="L635" s="21"/>
+      <c r="L635" s="22"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="L636" s="21"/>
+      <c r="L636" s="22"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="L637" s="21"/>
+      <c r="L637" s="22"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="L638" s="21"/>
+      <c r="L638" s="22"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="L639" s="21"/>
+      <c r="L639" s="22"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="L640" s="21"/>
+      <c r="L640" s="22"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="L641" s="21"/>
+      <c r="L641" s="22"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="L642" s="21"/>
+      <c r="L642" s="22"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="L643" s="21"/>
+      <c r="L643" s="22"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="L644" s="21"/>
+      <c r="L644" s="22"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="L645" s="21"/>
+      <c r="L645" s="22"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="L646" s="21"/>
+      <c r="L646" s="22"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="L647" s="21"/>
+      <c r="L647" s="22"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="L648" s="21"/>
+      <c r="L648" s="22"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="L649" s="21"/>
+      <c r="L649" s="22"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="L650" s="21"/>
+      <c r="L650" s="22"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="L651" s="21"/>
+      <c r="L651" s="22"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="L652" s="21"/>
+      <c r="L652" s="22"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="L653" s="21"/>
+      <c r="L653" s="22"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="L654" s="21"/>
+      <c r="L654" s="22"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="L655" s="21"/>
+      <c r="L655" s="22"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="L656" s="21"/>
+      <c r="L656" s="22"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="L657" s="21"/>
+      <c r="L657" s="22"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="L658" s="21"/>
+      <c r="L658" s="22"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="L659" s="21"/>
+      <c r="L659" s="22"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="L660" s="21"/>
+      <c r="L660" s="22"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="L661" s="21"/>
+      <c r="L661" s="22"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="L662" s="21"/>
+      <c r="L662" s="22"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="L663" s="21"/>
+      <c r="L663" s="22"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="L664" s="21"/>
+      <c r="L664" s="22"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="L665" s="21"/>
+      <c r="L665" s="22"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="L666" s="21"/>
+      <c r="L666" s="22"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="L667" s="21"/>
+      <c r="L667" s="22"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="L668" s="21"/>
+      <c r="L668" s="22"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="L669" s="21"/>
+      <c r="L669" s="22"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="L670" s="21"/>
+      <c r="L670" s="22"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="L671" s="21"/>
+      <c r="L671" s="22"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="L672" s="21"/>
+      <c r="L672" s="22"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="L673" s="21"/>
+      <c r="L673" s="22"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="L674" s="21"/>
+      <c r="L674" s="22"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="L675" s="21"/>
+      <c r="L675" s="22"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="L676" s="21"/>
+      <c r="L676" s="22"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="L677" s="21"/>
+      <c r="L677" s="22"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="L678" s="21"/>
+      <c r="L678" s="22"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="L679" s="21"/>
+      <c r="L679" s="22"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="L680" s="21"/>
+      <c r="L680" s="22"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="L681" s="21"/>
+      <c r="L681" s="22"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="L682" s="21"/>
+      <c r="L682" s="22"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="L683" s="21"/>
+      <c r="L683" s="22"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="L684" s="21"/>
+      <c r="L684" s="22"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="L685" s="21"/>
+      <c r="L685" s="22"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="L686" s="21"/>
+      <c r="L686" s="22"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="L687" s="21"/>
+      <c r="L687" s="22"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="L688" s="21"/>
+      <c r="L688" s="22"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="L689" s="21"/>
+      <c r="L689" s="22"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="L690" s="21"/>
+      <c r="L690" s="22"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="L691" s="21"/>
+      <c r="L691" s="22"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="L692" s="21"/>
+      <c r="L692" s="22"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="L693" s="21"/>
+      <c r="L693" s="22"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="L694" s="21"/>
+      <c r="L694" s="22"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="L695" s="21"/>
+      <c r="L695" s="22"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="L696" s="21"/>
+      <c r="L696" s="22"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="L697" s="21"/>
+      <c r="L697" s="22"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="L698" s="21"/>
+      <c r="L698" s="22"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="L699" s="21"/>
+      <c r="L699" s="22"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="L700" s="21"/>
+      <c r="L700" s="22"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="L701" s="21"/>
+      <c r="L701" s="22"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="L702" s="21"/>
+      <c r="L702" s="22"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="L703" s="21"/>
+      <c r="L703" s="22"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="L704" s="21"/>
+      <c r="L704" s="22"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="L705" s="21"/>
+      <c r="L705" s="22"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="L706" s="21"/>
+      <c r="L706" s="22"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="L707" s="21"/>
+      <c r="L707" s="22"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="L708" s="21"/>
+      <c r="L708" s="22"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="L709" s="21"/>
+      <c r="L709" s="22"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="L710" s="21"/>
+      <c r="L710" s="22"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="L711" s="21"/>
+      <c r="L711" s="22"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="L712" s="21"/>
+      <c r="L712" s="22"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="L713" s="21"/>
+      <c r="L713" s="22"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="L714" s="21"/>
+      <c r="L714" s="22"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="L715" s="21"/>
+      <c r="L715" s="22"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="L716" s="21"/>
+      <c r="L716" s="22"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="L717" s="21"/>
+      <c r="L717" s="22"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="L718" s="21"/>
+      <c r="L718" s="22"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="L719" s="21"/>
+      <c r="L719" s="22"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="L720" s="21"/>
+      <c r="L720" s="22"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="L721" s="21"/>
+      <c r="L721" s="22"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="L722" s="21"/>
+      <c r="L722" s="22"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="L723" s="21"/>
+      <c r="L723" s="22"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="L724" s="21"/>
+      <c r="L724" s="22"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="L725" s="21"/>
+      <c r="L725" s="22"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="L726" s="21"/>
+      <c r="L726" s="22"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="L727" s="21"/>
+      <c r="L727" s="22"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="L728" s="21"/>
+      <c r="L728" s="22"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="L729" s="21"/>
+      <c r="L729" s="22"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="L730" s="21"/>
+      <c r="L730" s="22"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="L731" s="21"/>
+      <c r="L731" s="22"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="L732" s="21"/>
+      <c r="L732" s="22"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="L733" s="21"/>
+      <c r="L733" s="22"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="L734" s="21"/>
+      <c r="L734" s="22"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="L735" s="21"/>
+      <c r="L735" s="22"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="L736" s="21"/>
+      <c r="L736" s="22"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="L737" s="21"/>
+      <c r="L737" s="22"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="L738" s="21"/>
+      <c r="L738" s="22"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="L739" s="21"/>
+      <c r="L739" s="22"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="L740" s="21"/>
+      <c r="L740" s="22"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="L741" s="21"/>
+      <c r="L741" s="22"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="L742" s="21"/>
+      <c r="L742" s="22"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="L743" s="21"/>
+      <c r="L743" s="22"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="L744" s="21"/>
+      <c r="L744" s="22"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="L745" s="21"/>
+      <c r="L745" s="22"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="L746" s="21"/>
+      <c r="L746" s="22"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="L747" s="21"/>
+      <c r="L747" s="22"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="L748" s="21"/>
+      <c r="L748" s="22"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="L749" s="21"/>
+      <c r="L749" s="22"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="L750" s="21"/>
+      <c r="L750" s="22"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="L751" s="21"/>
+      <c r="L751" s="22"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="L752" s="21"/>
+      <c r="L752" s="22"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="L753" s="21"/>
+      <c r="L753" s="22"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="L754" s="21"/>
+      <c r="L754" s="22"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="L755" s="21"/>
+      <c r="L755" s="22"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="L756" s="21"/>
+      <c r="L756" s="22"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="L757" s="21"/>
+      <c r="L757" s="22"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="L758" s="21"/>
+      <c r="L758" s="22"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="L759" s="21"/>
+      <c r="L759" s="22"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="L760" s="21"/>
+      <c r="L760" s="22"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="L761" s="21"/>
+      <c r="L761" s="22"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="L762" s="21"/>
+      <c r="L762" s="22"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="L763" s="21"/>
+      <c r="L763" s="22"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="L764" s="21"/>
+      <c r="L764" s="22"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="L765" s="21"/>
+      <c r="L765" s="22"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="L766" s="21"/>
+      <c r="L766" s="22"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="L767" s="21"/>
+      <c r="L767" s="22"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="L768" s="21"/>
+      <c r="L768" s="22"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="L769" s="21"/>
+      <c r="L769" s="22"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="L770" s="21"/>
+      <c r="L770" s="22"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="L771" s="21"/>
+      <c r="L771" s="22"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="L772" s="21"/>
+      <c r="L772" s="22"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="L773" s="21"/>
+      <c r="L773" s="22"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="L774" s="21"/>
+      <c r="L774" s="22"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="L775" s="21"/>
+      <c r="L775" s="22"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="L776" s="21"/>
+      <c r="L776" s="22"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="L777" s="21"/>
+      <c r="L777" s="22"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="L778" s="21"/>
+      <c r="L778" s="22"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="L779" s="21"/>
+      <c r="L779" s="22"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="L780" s="21"/>
+      <c r="L780" s="22"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="L781" s="21"/>
+      <c r="L781" s="22"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="L782" s="21"/>
+      <c r="L782" s="22"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="L783" s="21"/>
+      <c r="L783" s="22"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="L784" s="21"/>
+      <c r="L784" s="22"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="L785" s="21"/>
+      <c r="L785" s="22"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="L786" s="21"/>
+      <c r="L786" s="22"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="L787" s="21"/>
+      <c r="L787" s="22"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="L788" s="21"/>
+      <c r="L788" s="22"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="L789" s="21"/>
+      <c r="L789" s="22"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="L790" s="21"/>
+      <c r="L790" s="22"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="L791" s="21"/>
+      <c r="L791" s="22"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="L792" s="21"/>
+      <c r="L792" s="22"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="L793" s="21"/>
+      <c r="L793" s="22"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="L794" s="21"/>
+      <c r="L794" s="22"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="L795" s="21"/>
+      <c r="L795" s="22"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="L796" s="21"/>
+      <c r="L796" s="22"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="L797" s="21"/>
+      <c r="L797" s="22"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="L798" s="21"/>
+      <c r="L798" s="22"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="L799" s="21"/>
+      <c r="L799" s="22"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="L800" s="21"/>
+      <c r="L800" s="22"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="L801" s="21"/>
+      <c r="L801" s="22"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="L802" s="21"/>
+      <c r="L802" s="22"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="L803" s="21"/>
+      <c r="L803" s="22"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="L804" s="21"/>
+      <c r="L804" s="22"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="L805" s="21"/>
+      <c r="L805" s="22"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="L806" s="21"/>
+      <c r="L806" s="22"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="L807" s="21"/>
+      <c r="L807" s="22"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="L808" s="21"/>
+      <c r="L808" s="22"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="L809" s="21"/>
+      <c r="L809" s="22"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="L810" s="21"/>
+      <c r="L810" s="22"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="L811" s="21"/>
+      <c r="L811" s="22"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="L812" s="21"/>
+      <c r="L812" s="22"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="L813" s="21"/>
+      <c r="L813" s="22"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="L814" s="21"/>
+      <c r="L814" s="22"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="L815" s="21"/>
+      <c r="L815" s="22"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="L816" s="21"/>
+      <c r="L816" s="22"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="L817" s="21"/>
+      <c r="L817" s="22"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="L818" s="21"/>
+      <c r="L818" s="22"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="L819" s="21"/>
+      <c r="L819" s="22"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="L820" s="21"/>
+      <c r="L820" s="22"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="L821" s="21"/>
+      <c r="L821" s="22"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="L822" s="21"/>
+      <c r="L822" s="22"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="L823" s="21"/>
+      <c r="L823" s="22"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="L824" s="21"/>
+      <c r="L824" s="22"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="L825" s="21"/>
+      <c r="L825" s="22"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="L826" s="21"/>
+      <c r="L826" s="22"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="L827" s="21"/>
+      <c r="L827" s="22"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="L828" s="21"/>
+      <c r="L828" s="22"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="L829" s="21"/>
+      <c r="L829" s="22"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="L830" s="21"/>
+      <c r="L830" s="22"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="L831" s="21"/>
+      <c r="L831" s="22"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="L832" s="21"/>
+      <c r="L832" s="22"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="L833" s="21"/>
+      <c r="L833" s="22"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="L834" s="21"/>
+      <c r="L834" s="22"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="L835" s="21"/>
+      <c r="L835" s="22"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="L836" s="21"/>
+      <c r="L836" s="22"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="L837" s="21"/>
+      <c r="L837" s="22"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="L838" s="21"/>
+      <c r="L838" s="22"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="L839" s="21"/>
+      <c r="L839" s="22"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="L840" s="21"/>
+      <c r="L840" s="22"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="L841" s="21"/>
+      <c r="L841" s="22"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="L842" s="21"/>
+      <c r="L842" s="22"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="L843" s="21"/>
+      <c r="L843" s="22"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="L844" s="21"/>
+      <c r="L844" s="22"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="L845" s="21"/>
+      <c r="L845" s="22"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="L846" s="21"/>
+      <c r="L846" s="22"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="L847" s="21"/>
+      <c r="L847" s="22"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="L848" s="21"/>
+      <c r="L848" s="22"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="L849" s="21"/>
+      <c r="L849" s="22"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="L850" s="21"/>
+      <c r="L850" s="22"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="L851" s="21"/>
+      <c r="L851" s="22"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="L852" s="21"/>
+      <c r="L852" s="22"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="L853" s="21"/>
+      <c r="L853" s="22"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="L854" s="21"/>
+      <c r="L854" s="22"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="L855" s="21"/>
+      <c r="L855" s="22"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="L856" s="21"/>
+      <c r="L856" s="22"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="L857" s="21"/>
+      <c r="L857" s="22"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="L858" s="21"/>
+      <c r="L858" s="22"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="L859" s="21"/>
+      <c r="L859" s="22"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="L860" s="21"/>
+      <c r="L860" s="22"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="L861" s="21"/>
+      <c r="L861" s="22"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="L862" s="21"/>
+      <c r="L862" s="22"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="L863" s="21"/>
+      <c r="L863" s="22"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="L864" s="21"/>
+      <c r="L864" s="22"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="L865" s="21"/>
+      <c r="L865" s="22"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="L866" s="21"/>
+      <c r="L866" s="22"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="L867" s="21"/>
+      <c r="L867" s="22"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="L868" s="21"/>
+      <c r="L868" s="22"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="L869" s="21"/>
+      <c r="L869" s="22"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="L870" s="21"/>
+      <c r="L870" s="22"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="L871" s="21"/>
+      <c r="L871" s="22"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="L872" s="21"/>
+      <c r="L872" s="22"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="L873" s="21"/>
+      <c r="L873" s="22"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="L874" s="21"/>
+      <c r="L874" s="22"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="L875" s="21"/>
+      <c r="L875" s="22"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="L876" s="21"/>
+      <c r="L876" s="22"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="L877" s="21"/>
+      <c r="L877" s="22"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="L878" s="21"/>
+      <c r="L878" s="22"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="L879" s="21"/>
+      <c r="L879" s="22"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="L880" s="21"/>
+      <c r="L880" s="22"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="L881" s="21"/>
+      <c r="L881" s="22"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="L882" s="21"/>
+      <c r="L882" s="22"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="L883" s="21"/>
+      <c r="L883" s="22"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="L884" s="21"/>
+      <c r="L884" s="22"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="L885" s="21"/>
+      <c r="L885" s="22"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="L886" s="21"/>
+      <c r="L886" s="22"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="L887" s="21"/>
+      <c r="L887" s="22"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="L888" s="21"/>
+      <c r="L888" s="22"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="L889" s="21"/>
+      <c r="L889" s="22"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="L890" s="21"/>
+      <c r="L890" s="22"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="L891" s="21"/>
+      <c r="L891" s="22"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="L892" s="21"/>
+      <c r="L892" s="22"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="L893" s="21"/>
+      <c r="L893" s="22"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="L894" s="21"/>
+      <c r="L894" s="22"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="L895" s="21"/>
+      <c r="L895" s="22"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="L896" s="21"/>
+      <c r="L896" s="22"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="L897" s="21"/>
+      <c r="L897" s="22"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="L898" s="21"/>
+      <c r="L898" s="22"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="L899" s="21"/>
+      <c r="L899" s="22"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="L900" s="21"/>
+      <c r="L900" s="22"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="L901" s="21"/>
+      <c r="L901" s="22"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="L902" s="21"/>
+      <c r="L902" s="22"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="L903" s="21"/>
+      <c r="L903" s="22"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="L904" s="21"/>
+      <c r="L904" s="22"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="L905" s="21"/>
+      <c r="L905" s="22"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="L906" s="21"/>
+      <c r="L906" s="22"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="L907" s="21"/>
+      <c r="L907" s="22"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="L908" s="21"/>
+      <c r="L908" s="22"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="L909" s="21"/>
+      <c r="L909" s="22"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="L910" s="21"/>
+      <c r="L910" s="22"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="L911" s="21"/>
+      <c r="L911" s="22"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="L912" s="21"/>
+      <c r="L912" s="22"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="L913" s="21"/>
+      <c r="L913" s="22"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="L914" s="21"/>
+      <c r="L914" s="22"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="L915" s="21"/>
+      <c r="L915" s="22"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="L916" s="21"/>
+      <c r="L916" s="22"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="L917" s="21"/>
+      <c r="L917" s="22"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="L918" s="21"/>
+      <c r="L918" s="22"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="L919" s="21"/>
+      <c r="L919" s="22"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="L920" s="21"/>
+      <c r="L920" s="22"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="L921" s="21"/>
+      <c r="L921" s="22"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="L922" s="21"/>
+      <c r="L922" s="22"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="L923" s="21"/>
+      <c r="L923" s="22"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="L924" s="21"/>
+      <c r="L924" s="22"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="L925" s="21"/>
+      <c r="L925" s="22"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="L926" s="21"/>
+      <c r="L926" s="22"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="L927" s="21"/>
+      <c r="L927" s="22"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="L928" s="21"/>
+      <c r="L928" s="22"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="L929" s="21"/>
+      <c r="L929" s="22"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="L930" s="21"/>
+      <c r="L930" s="22"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="L931" s="21"/>
+      <c r="L931" s="22"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="L932" s="21"/>
+      <c r="L932" s="22"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="L933" s="21"/>
+      <c r="L933" s="22"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="L934" s="21"/>
+      <c r="L934" s="22"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="L935" s="21"/>
+      <c r="L935" s="22"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="L936" s="21"/>
+      <c r="L936" s="22"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="L937" s="21"/>
+      <c r="L937" s="22"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="L938" s="21"/>
+      <c r="L938" s="22"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="L939" s="21"/>
+      <c r="L939" s="22"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="L940" s="21"/>
+      <c r="L940" s="22"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="L941" s="21"/>
+      <c r="L941" s="22"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="L942" s="21"/>
+      <c r="L942" s="22"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="L943" s="21"/>
+      <c r="L943" s="22"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="L944" s="21"/>
+      <c r="L944" s="22"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="L945" s="21"/>
+      <c r="L945" s="22"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="L946" s="21"/>
+      <c r="L946" s="22"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="L947" s="21"/>
+      <c r="L947" s="22"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="L948" s="21"/>
+      <c r="L948" s="22"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="L949" s="21"/>
+      <c r="L949" s="22"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="L950" s="21"/>
+      <c r="L950" s="22"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="L951" s="21"/>
+      <c r="L951" s="22"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="L952" s="21"/>
+      <c r="L952" s="22"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="L953" s="21"/>
+      <c r="L953" s="22"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="L954" s="21"/>
+      <c r="L954" s="22"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="L955" s="21"/>
+      <c r="L955" s="22"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="L956" s="21"/>
+      <c r="L956" s="22"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="L957" s="21"/>
+      <c r="L957" s="22"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="L958" s="21"/>
+      <c r="L958" s="22"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="L959" s="21"/>
+      <c r="L959" s="22"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="L960" s="21"/>
+      <c r="L960" s="22"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="L961" s="21"/>
+      <c r="L961" s="22"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="L962" s="21"/>
+      <c r="L962" s="22"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="L963" s="21"/>
+      <c r="L963" s="22"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="L964" s="21"/>
+      <c r="L964" s="22"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="L965" s="21"/>
+      <c r="L965" s="22"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="L966" s="21"/>
+      <c r="L966" s="22"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="L967" s="21"/>
+      <c r="L967" s="22"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="L968" s="21"/>
+      <c r="L968" s="22"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="L969" s="21"/>
+      <c r="L969" s="22"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="L970" s="21"/>
+      <c r="L970" s="22"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="L971" s="21"/>
+      <c r="L971" s="22"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="L972" s="21"/>
+      <c r="L972" s="22"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="L973" s="21"/>
+      <c r="L973" s="22"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="L974" s="21"/>
+      <c r="L974" s="22"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="L975" s="21"/>
+      <c r="L975" s="22"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="L976" s="21"/>
+      <c r="L976" s="22"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="L977" s="21"/>
+      <c r="L977" s="22"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="L978" s="21"/>
+      <c r="L978" s="22"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="L979" s="21"/>
+      <c r="L979" s="22"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="L980" s="21"/>
+      <c r="L980" s="22"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="L981" s="21"/>
+      <c r="L981" s="22"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="L982" s="21"/>
+      <c r="L982" s="22"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="L983" s="21"/>
+      <c r="L983" s="22"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="L984" s="21"/>
+      <c r="L984" s="22"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="L985" s="21"/>
+      <c r="L985" s="22"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="L986" s="21"/>
+      <c r="L986" s="22"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="L987" s="21"/>
+      <c r="L987" s="22"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="L988" s="21"/>
+      <c r="L988" s="22"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="L989" s="21"/>
+      <c r="L989" s="22"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="L990" s="21"/>
+      <c r="L990" s="22"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="L991" s="21"/>
+      <c r="L991" s="22"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="L992" s="21"/>
+      <c r="L992" s="22"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="L993" s="21"/>
+      <c r="L993" s="22"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="L994" s="21"/>
+      <c r="L994" s="22"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="L995" s="21"/>
+      <c r="L995" s="22"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="L996" s="21"/>
+      <c r="L996" s="22"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="L997" s="21"/>
+      <c r="L997" s="22"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="L998" s="21"/>
+      <c r="L998" s="22"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="L999" s="21"/>
+      <c r="L999" s="22"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="L1000" s="21"/>
+      <c r="L1000" s="22"/>
     </row>
   </sheetData>
   <printOptions/>
